--- a/我的创作/股票/技术投资/SEAP交易系统/交易分析与计划/2022-03/大盘情况.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易分析与计划/2022-03/大盘情况.xlsx
@@ -51,11 +51,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -74,6 +74,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -81,7 +96,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -102,21 +117,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -125,9 +125,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -149,6 +165,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -158,15 +189,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -179,36 +209,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -219,168 +219,180 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -388,18 +400,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -441,7 +441,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -463,8 +463,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -500,17 +502,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -525,157 +516,166 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -696,9 +696,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1021,8 +1018,8 @@
   <sheetPr/>
   <dimension ref="A1:H80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3:H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="7"/>
@@ -1046,12 +1043,12 @@
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="3"/>
@@ -1120,7 +1117,9 @@
       <c r="H4" s="4"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="6"/>
+      <c r="A5" s="5">
+        <v>44650</v>
+      </c>
       <c r="B5" s="4"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
@@ -1130,7 +1129,9 @@
       <c r="H5" s="6"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="6"/>
+      <c r="A6" s="5">
+        <v>44660</v>
+      </c>
       <c r="B6" s="4"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -1140,7 +1141,9 @@
       <c r="H6" s="6"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="6"/>
+      <c r="A7" s="5">
+        <v>44670</v>
+      </c>
       <c r="B7" s="4"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -1150,7 +1153,9 @@
       <c r="H7" s="6"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="6"/>
+      <c r="A8" s="5">
+        <v>44680</v>
+      </c>
       <c r="B8" s="4"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -1160,7 +1165,9 @@
       <c r="H8" s="6"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="6"/>
+      <c r="A9" s="5">
+        <v>44690</v>
+      </c>
       <c r="B9" s="4"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -1170,7 +1177,9 @@
       <c r="H9" s="6"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="6"/>
+      <c r="A10" s="5">
+        <v>44700</v>
+      </c>
       <c r="B10" s="4"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -1180,7 +1189,9 @@
       <c r="H10" s="6"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="6"/>
+      <c r="A11" s="5">
+        <v>44710</v>
+      </c>
       <c r="B11" s="4"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易分析与计划/2022-03/大盘情况.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易分析与计划/2022-03/大盘情况.xlsx
@@ -1019,7 +1019,7 @@
   <dimension ref="A1:H80"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3:H4"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="7"/>
